--- a/ArticleManage/main_working_folder/output_folders/Data 48 Characteristics of activated carbon/Data48_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 48 Characteristics of activated carbon/Data48_all_graphs_excel.xlsx
@@ -5,18 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 1  0&amp;1&amp;0&amp;160 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 10  0&amp;1&amp;0&amp;400 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 11  0&amp;1&amp;0&amp;350 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 12  0&amp;1&amp;0&amp;350 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 2  0&amp;1&amp;0&amp;160 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 3  0&amp;1&amp;0&amp;160 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 1 4  0&amp;1&amp;0&amp;350 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 1 5  0&amp;1&amp;0&amp;350 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 1 6  0&amp;1&amp;0&amp;350 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 1 7  0&amp;1&amp;0&amp;400 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 1 8  0&amp;1&amp;0&amp;400 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 1 9  0&amp;1&amp;0&amp;400 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 1_1 1  0&amp;1&amp;0&amp;160 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 2  0&amp;1&amp;0&amp;160 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 3  0&amp;1&amp;0&amp;160 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_2 4  0&amp;1&amp;0&amp;350 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_2 5  0&amp;1&amp;0&amp;350 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_2 6  0&amp;1&amp;0&amp;350 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_3 10  0&amp;1&amp;0&amp;400 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 1_3 7  0&amp;1&amp;0&amp;400 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1_3 8  0&amp;1&amp;0&amp;400 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 1_3 9  0&amp;1&amp;0&amp;400 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 1_4 11  0&amp;1&amp;0&amp;350 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 1_4 12  0&amp;1&amp;0&amp;350 " sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 1  0&amp;1&amp;0&amp;160 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 1  0&amp;1&amp;0&amp;160 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 1  0&amp;1&amp;0&amp;160 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 1  0&amp;1&amp;0&amp;160 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -419,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 7 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki 9 z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 7  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 9  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 7  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 9  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -733,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 8 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki 11 z wykresu 'Figure 1_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,954 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 8  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_4 11  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 8  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 9 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 9  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 9  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 10 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 10  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 10  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 11 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 11  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 11  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_4 11  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1956,7 +1014,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1989,7 +1047,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 12 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki 12 z wykresu 'Figure 1_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2048,12 +1106,954 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 12  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_4 12  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 12  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_4 12  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 2 z wykresu 'Figure 1_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 2  0&amp;1&amp;0&amp;160 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 2  0&amp;1&amp;0&amp;160 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 3 z wykresu 'Figure 1_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 3  0&amp;1&amp;0&amp;160 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_1 3  0&amp;1&amp;0&amp;160 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 4 z wykresu 'Figure 1_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 4  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_2 4  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2303,7 +2303,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki 5 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2362,640 +2362,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 2  0&amp;1&amp;0&amp;160 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 5  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 2  0&amp;1&amp;0&amp;160 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="160"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 3 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 3  0&amp;1&amp;0&amp;160 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 3  0&amp;1&amp;0&amp;160 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="160"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 4 z wykresu 'Figure 1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 1 4  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 1 4  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 5  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3212,7 +2584,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3245,7 +2617,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 5 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki 6 z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3304,12 +2676,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 5  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 6  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 5  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 6  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3526,7 +2898,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3559,7 +2931,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 6 z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki 10 z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3618,12 +2990,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 6  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 10  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 6  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 10  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3707,7 +3079,635 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 7 z wykresu 'Figure 1_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_3 7  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_3 7  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 8 z wykresu 'Figure 1_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 1_3 8  0&amp;1&amp;0&amp;400 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 1_3 8  0&amp;1&amp;0&amp;400 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11517,7 +11517,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11525,7 +11525,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -11538,221 +11538,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0044</v>
+        <v>0.0119</v>
       </c>
       <c r="B3" s="0">
-        <v>22.699</v>
+        <v>222.0601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0114</v>
+        <v>0.0195</v>
       </c>
       <c r="B4" s="0">
-        <v>28.3782</v>
+        <v>238.8294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0199</v>
+        <v>0.0396</v>
       </c>
       <c r="B5" s="0">
-        <v>36.1218</v>
+        <v>259.2189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0394</v>
+        <v>0.0591</v>
       </c>
       <c r="B6" s="0">
-        <v>47.7423</v>
+        <v>275.2236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0598</v>
+        <v>0.0778</v>
       </c>
       <c r="B7" s="0">
-        <v>51.6265</v>
+        <v>287.1014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0786</v>
+        <v>0.0972</v>
       </c>
       <c r="B8" s="0">
-        <v>55.5095</v>
+        <v>300.785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0974</v>
+        <v>0.116</v>
       </c>
       <c r="B9" s="0">
-        <v>59.3925</v>
+        <v>306.9891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.117</v>
+        <v>0.1363</v>
       </c>
       <c r="B10" s="0">
-        <v>61.213</v>
+        <v>315.2576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1374</v>
+        <v>0.1543</v>
       </c>
       <c r="B11" s="0">
-        <v>63.2919</v>
+        <v>318.6242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.157</v>
+        <v>0.1738</v>
       </c>
       <c r="B12" s="0">
-        <v>63.565</v>
+        <v>325.6025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1751</v>
+        <v>0.1942</v>
       </c>
       <c r="B13" s="0">
-        <v>63.3211</v>
+        <v>329.7447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1947</v>
+        <v>0.2435</v>
       </c>
       <c r="B14" s="0">
-        <v>65.3995</v>
+        <v>341.3883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2442</v>
+        <v>0.293</v>
       </c>
       <c r="B15" s="0">
-        <v>65.6957</v>
+        <v>347.3581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2937</v>
+        <v>0.3431</v>
       </c>
       <c r="B16" s="0">
-        <v>67.0234</v>
+        <v>353.5865</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3439</v>
+        <v>0.3918</v>
       </c>
       <c r="B17" s="0">
-        <v>69.6413</v>
+        <v>357.4926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3926</v>
+        <v>0.442</v>
       </c>
       <c r="B18" s="0">
-        <v>71.2263</v>
+        <v>364.2368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4436</v>
+        <v>0.4946</v>
       </c>
       <c r="B19" s="0">
-        <v>73.8448</v>
+        <v>364.2775</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.493</v>
+        <v>0.5464</v>
       </c>
       <c r="B20" s="0">
-        <v>77.7515</v>
+        <v>367.4124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5456</v>
+        <v>0.5974</v>
       </c>
       <c r="B21" s="0">
-        <v>81.6607</v>
+        <v>370.0309</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5966</v>
+        <v>0.6477</v>
       </c>
       <c r="B22" s="0">
-        <v>85.8265</v>
+        <v>370.8434</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6476</v>
+        <v>0.6972</v>
       </c>
       <c r="B23" s="0">
-        <v>91.7976</v>
+        <v>373.4607</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6977</v>
+        <v>0.7474</v>
       </c>
       <c r="B24" s="0">
-        <v>102.1523</v>
+        <v>374.7891</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7478</v>
+        <v>0.7977</v>
       </c>
       <c r="B25" s="0">
-        <v>117.9228</v>
+        <v>376.1174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7986</v>
+        <v>0.8479</v>
       </c>
       <c r="B26" s="0">
-        <v>136.5308</v>
+        <v>377.1879</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8485</v>
+        <v>0.899</v>
       </c>
       <c r="B27" s="0">
-        <v>164.9382</v>
+        <v>378.7748</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.899</v>
+        <v>0.9492</v>
       </c>
       <c r="B28" s="0">
-        <v>208.3041</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9507</v>
-      </c>
-      <c r="B29" s="0">
-        <v>274.366</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>379.8453</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11769,7 +11761,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -11782,210 +11774,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0093</v>
+        <v>0.9507</v>
       </c>
       <c r="B3" s="0">
-        <v>63.7087</v>
+        <v>184.7964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0201</v>
+        <v>0.9019</v>
       </c>
       <c r="B4" s="0">
-        <v>79.7067</v>
+        <v>156.743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0396</v>
+        <v>0.8515</v>
       </c>
       <c r="B5" s="0">
-        <v>94.9377</v>
+        <v>141.1578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0591</v>
+        <v>0.8018</v>
       </c>
       <c r="B6" s="0">
-        <v>103.4635</v>
+        <v>133.1425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0779</v>
+        <v>0.7505</v>
       </c>
       <c r="B7" s="0">
-        <v>106.8307</v>
+        <v>124.6819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0975</v>
+        <v>0.7009</v>
       </c>
       <c r="B8" s="0">
-        <v>110.7143</v>
+        <v>118.6705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1171</v>
+        <v>0.6504</v>
       </c>
       <c r="B9" s="0">
-        <v>113.3085</v>
+        <v>113.1043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1367</v>
+        <v>0.5999</v>
       </c>
       <c r="B10" s="0">
-        <v>116.6763</v>
+        <v>108.2061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1563</v>
+        <v>0.5503</v>
       </c>
       <c r="B11" s="0">
-        <v>118.4968</v>
+        <v>103.3079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1751</v>
+        <v>0.5006</v>
       </c>
       <c r="B12" s="0">
-        <v>120.5745</v>
+        <v>99.0776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1932</v>
+        <v>0.4509</v>
       </c>
       <c r="B13" s="0">
-        <v>121.3622</v>
+        <v>95.7379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2442</v>
+        <v>0.4013</v>
       </c>
       <c r="B14" s="0">
-        <v>124.7543</v>
+        <v>91.5076</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2952</v>
+        <v>0.3516</v>
       </c>
       <c r="B15" s="0">
-        <v>125.5675</v>
+        <v>87.0547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3439</v>
+        <v>0.3028</v>
       </c>
       <c r="B16" s="0">
-        <v>127.9262</v>
+        <v>83.4924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3926</v>
+        <v>0.2506</v>
       </c>
       <c r="B17" s="0">
-        <v>130.0271</v>
+        <v>79.93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4428</v>
+        <v>0.201</v>
       </c>
       <c r="B18" s="0">
-        <v>131.3555</v>
+        <v>76.145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4931</v>
+        <v>0.1811</v>
       </c>
       <c r="B19" s="0">
-        <v>132.168</v>
+        <v>75.2545</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5441</v>
+        <v>0.1604</v>
       </c>
       <c r="B20" s="0">
-        <v>134.2707</v>
+        <v>74.1412</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5967</v>
+        <v>0.1406</v>
       </c>
       <c r="B21" s="0">
-        <v>137.1483</v>
+        <v>73.028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6477</v>
+        <v>0.1215</v>
       </c>
       <c r="B22" s="0">
-        <v>140.5404</v>
+        <v>71.6921</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6979</v>
+        <v>0.1008</v>
       </c>
       <c r="B23" s="0">
-        <v>145.7372</v>
+        <v>69.6883</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7481</v>
+        <v>0.081</v>
       </c>
       <c r="B24" s="0">
-        <v>150.934</v>
+        <v>67.2392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7991</v>
+        <v>0.0611</v>
       </c>
       <c r="B25" s="0">
-        <v>161.0315</v>
+        <v>60.1145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8482</v>
+        <v>0.0404</v>
       </c>
       <c r="B26" s="0">
-        <v>183.2488</v>
+        <v>55.4389</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8994</v>
+        <v>0.0206</v>
       </c>
       <c r="B27" s="0">
-        <v>230.7416</v>
+        <v>49.6501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9496</v>
+        <v>0.0107</v>
       </c>
       <c r="B28" s="0">
-        <v>296.5444</v>
+        <v>39.631</v>
       </c>
     </row>
     <row r="29"/>
@@ -11997,7 +11989,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12005,7 +11997,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -12018,213 +12010,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0119</v>
+        <v>0.9496</v>
       </c>
       <c r="B3" s="0">
-        <v>222.0601</v>
+        <v>319.2748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0195</v>
+        <v>0.8992</v>
       </c>
       <c r="B4" s="0">
-        <v>238.8294</v>
+        <v>269.6247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0396</v>
+        <v>0.8504</v>
       </c>
       <c r="B5" s="0">
-        <v>259.2189</v>
+        <v>239.5674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0591</v>
+        <v>0.8008</v>
       </c>
       <c r="B6" s="0">
-        <v>275.2236</v>
+        <v>232.888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0778</v>
+        <v>0.7503</v>
       </c>
       <c r="B7" s="0">
-        <v>287.1014</v>
+        <v>226.8766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0972</v>
+        <v>0.7023</v>
       </c>
       <c r="B8" s="0">
-        <v>300.785</v>
+        <v>213.2952</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.116</v>
+        <v>0.651</v>
       </c>
       <c r="B9" s="0">
-        <v>306.9891</v>
+        <v>204.1667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1363</v>
+        <v>0.6014</v>
       </c>
       <c r="B10" s="0">
-        <v>315.2576</v>
+        <v>194.1476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1543</v>
+        <v>0.5517</v>
       </c>
       <c r="B11" s="0">
-        <v>318.6242</v>
+        <v>186.1323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1738</v>
+        <v>0.5029</v>
       </c>
       <c r="B12" s="0">
-        <v>325.6025</v>
+        <v>178.3397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1942</v>
+        <v>0.4516</v>
       </c>
       <c r="B13" s="0">
-        <v>329.7447</v>
+        <v>170.3244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2435</v>
+        <v>0.4028</v>
       </c>
       <c r="B14" s="0">
-        <v>341.3883</v>
+        <v>163.4224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.293</v>
+        <v>0.3531</v>
       </c>
       <c r="B15" s="0">
-        <v>347.3581</v>
+        <v>156.5204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3431</v>
+        <v>0.2513</v>
       </c>
       <c r="B16" s="0">
-        <v>353.5865</v>
+        <v>143.1616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3918</v>
+        <v>0.2017</v>
       </c>
       <c r="B17" s="0">
-        <v>357.4926</v>
+        <v>134.9237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.442</v>
+        <v>0.181</v>
       </c>
       <c r="B18" s="0">
-        <v>364.2368</v>
+        <v>128.2443</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4946</v>
+        <v>0.1603</v>
       </c>
       <c r="B19" s="0">
-        <v>364.2775</v>
+        <v>120.6743</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5464</v>
+        <v>0.1404</v>
       </c>
       <c r="B20" s="0">
-        <v>367.4124</v>
+        <v>117.7799</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5974</v>
+        <v>0.1206</v>
       </c>
       <c r="B21" s="0">
-        <v>370.0309</v>
+        <v>113.5496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6477</v>
+        <v>0.0999</v>
       </c>
       <c r="B22" s="0">
-        <v>370.8434</v>
+        <v>110.2099</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6972</v>
+        <v>0.08</v>
       </c>
       <c r="B23" s="0">
-        <v>373.4607</v>
+        <v>105.5344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7474</v>
+        <v>0.0619</v>
       </c>
       <c r="B24" s="0">
-        <v>374.7891</v>
+        <v>99.7455</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7977</v>
+        <v>0.042</v>
       </c>
       <c r="B25" s="0">
-        <v>376.1174</v>
+        <v>95.07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8479</v>
+        <v>0.0222</v>
       </c>
       <c r="B26" s="0">
-        <v>377.1879</v>
+        <v>83.2697</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.899</v>
+        <v>0.0098</v>
       </c>
       <c r="B27" s="0">
-        <v>378.7748</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9492</v>
-      </c>
-      <c r="B28" s="0">
-        <v>379.8453</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>75.4771</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12233,7 +12217,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12241,7 +12225,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -12254,58 +12238,58 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9487</v>
+        <v>0.95</v>
       </c>
       <c r="B3" s="0">
-        <v>306.086</v>
+        <v>57.7467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8971</v>
+        <v>0.8983</v>
       </c>
       <c r="B4" s="0">
-        <v>282.5774</v>
+        <v>43.1827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8479</v>
+        <v>0.8467</v>
       </c>
       <c r="B5" s="0">
-        <v>264.7443</v>
+        <v>33.6092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.797</v>
+        <v>0.7952</v>
       </c>
       <c r="B6" s="0">
-        <v>251.2942</v>
+        <v>28.7206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7469</v>
+        <v>0.7453</v>
       </c>
       <c r="B7" s="0">
-        <v>238.3606</v>
+        <v>24.9523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.696</v>
+        <v>0.6954</v>
       </c>
       <c r="B8" s="0">
-        <v>226.4579</v>
+        <v>22.9153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6459</v>
+        <v>0.6448</v>
       </c>
       <c r="B9" s="0">
-        <v>215.3295</v>
+        <v>21.9987</v>
       </c>
     </row>
     <row r="10">
@@ -12313,154 +12297,122 @@
         <v>0.5958</v>
       </c>
       <c r="B10" s="0">
-        <v>206.78</v>
+        <v>21.2858</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5456</v>
+        <v>0.5452</v>
       </c>
       <c r="B11" s="0">
-        <v>197.199</v>
+        <v>20.9803</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4931</v>
+        <v>0.497</v>
       </c>
       <c r="B12" s="0">
-        <v>188.9056</v>
+        <v>20.6747</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4429</v>
+        <v>0.3958</v>
       </c>
       <c r="B13" s="0">
-        <v>180.872</v>
+        <v>20.3692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.392</v>
+        <v>0.3459</v>
       </c>
       <c r="B14" s="0">
-        <v>174.1272</v>
+        <v>19.7581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3434</v>
+        <v>0.2969</v>
       </c>
       <c r="B15" s="0">
-        <v>166.3527</v>
+        <v>19.6563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2932</v>
+        <v>0.2479</v>
       </c>
       <c r="B16" s="0">
-        <v>159.8664</v>
+        <v>19.5544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2438</v>
+        <v>0.1957</v>
       </c>
       <c r="B17" s="0">
-        <v>153.6386</v>
+        <v>19.147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1944</v>
+        <v>0.176</v>
       </c>
       <c r="B18" s="0">
-        <v>146.895</v>
+        <v>19.0452</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1748</v>
+        <v>0.1554</v>
       </c>
       <c r="B19" s="0">
-        <v>144.043</v>
+        <v>19.0452</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1552</v>
+        <v>0.1349</v>
       </c>
       <c r="B20" s="0">
-        <v>140.6751</v>
+        <v>18.7397</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1356</v>
+        <v>0.1151</v>
       </c>
       <c r="B21" s="0">
-        <v>138.081</v>
+        <v>18.7397</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1168</v>
+        <v>0.0961</v>
       </c>
       <c r="B22" s="0">
-        <v>134.198</v>
+        <v>18.7397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0972</v>
+        <v>0.0771</v>
       </c>
       <c r="B23" s="0">
-        <v>129.7986</v>
+        <v>18.2304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0784</v>
+        <v>0.0368</v>
       </c>
       <c r="B24" s="0">
-        <v>125.3998</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0581</v>
-      </c>
-      <c r="B25" s="0">
-        <v>118.1629</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0385</v>
-      </c>
-      <c r="B26" s="0">
-        <v>111.4424</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0191</v>
-      </c>
-      <c r="B27" s="0">
-        <v>94.664</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0083</v>
-      </c>
-      <c r="B28" s="0">
-        <v>80.7292</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>17.1101</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12477,7 +12429,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -12490,210 +12442,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9507</v>
+        <v>0.9506</v>
       </c>
       <c r="B3" s="0">
-        <v>184.7964</v>
+        <v>142.4825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9019</v>
+        <v>0.8993</v>
       </c>
       <c r="B4" s="0">
-        <v>156.743</v>
+        <v>115.0859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8515</v>
+        <v>0.8483</v>
       </c>
       <c r="B5" s="0">
-        <v>141.1578</v>
+        <v>98.1795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8018</v>
+        <v>0.7966</v>
       </c>
       <c r="B6" s="0">
-        <v>133.1425</v>
+        <v>86.4672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7505</v>
+        <v>0.7466</v>
       </c>
       <c r="B7" s="0">
-        <v>124.6819</v>
+        <v>77.1992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7009</v>
+        <v>0.6974</v>
       </c>
       <c r="B8" s="0">
-        <v>118.6705</v>
+        <v>71.1903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6504</v>
+        <v>0.6483</v>
       </c>
       <c r="B9" s="0">
-        <v>113.1043</v>
+        <v>67.2183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5999</v>
+        <v>0.5976</v>
       </c>
       <c r="B10" s="0">
-        <v>108.2061</v>
+        <v>63.1445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5503</v>
+        <v>0.547</v>
       </c>
       <c r="B11" s="0">
-        <v>103.3079</v>
+        <v>61.4131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5006</v>
+        <v>0.4971</v>
       </c>
       <c r="B12" s="0">
-        <v>99.0776</v>
+        <v>59.3762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4509</v>
+        <v>0.4481</v>
       </c>
       <c r="B13" s="0">
-        <v>95.7379</v>
+        <v>58.2559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4013</v>
+        <v>0.3975</v>
       </c>
       <c r="B14" s="0">
-        <v>91.5076</v>
+        <v>58.5614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3516</v>
+        <v>0.3485</v>
       </c>
       <c r="B15" s="0">
-        <v>87.0547</v>
+        <v>58.5614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3028</v>
+        <v>0.2979</v>
       </c>
       <c r="B16" s="0">
-        <v>83.4924</v>
+        <v>57.543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2506</v>
+        <v>0.2481</v>
       </c>
       <c r="B17" s="0">
-        <v>79.93</v>
+        <v>57.4411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.201</v>
+        <v>0.1975</v>
       </c>
       <c r="B18" s="0">
-        <v>76.145</v>
+        <v>57.4411</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1811</v>
+        <v>0.1761</v>
       </c>
       <c r="B19" s="0">
-        <v>75.2545</v>
+        <v>57.3393</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1604</v>
+        <v>0.1571</v>
       </c>
       <c r="B20" s="0">
-        <v>74.1412</v>
+        <v>57.3393</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1406</v>
+        <v>0.1358</v>
       </c>
       <c r="B21" s="0">
-        <v>73.028</v>
+        <v>56.5245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1215</v>
+        <v>0.1152</v>
       </c>
       <c r="B22" s="0">
-        <v>71.6921</v>
+        <v>56.3208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1008</v>
+        <v>0.0978</v>
       </c>
       <c r="B23" s="0">
-        <v>69.6883</v>
+        <v>56.4227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.081</v>
+        <v>0.0781</v>
       </c>
       <c r="B24" s="0">
-        <v>67.2392</v>
+        <v>56.4227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0611</v>
+        <v>0.0591</v>
       </c>
       <c r="B25" s="0">
-        <v>60.1145</v>
+        <v>55.4042</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0404</v>
+        <v>0.0401</v>
       </c>
       <c r="B26" s="0">
-        <v>55.4389</v>
+        <v>54.4876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0206</v>
+        <v>0.0194</v>
       </c>
       <c r="B27" s="0">
-        <v>49.6501</v>
+        <v>48.8861</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0107</v>
+        <v>0.0105</v>
       </c>
       <c r="B28" s="0">
-        <v>39.631</v>
+        <v>41.7568</v>
       </c>
     </row>
     <row r="29"/>
@@ -12705,7 +12657,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12713,7 +12665,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -12726,205 +12678,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9496</v>
+        <v>0.9516</v>
       </c>
       <c r="B3" s="0">
-        <v>319.2748</v>
+        <v>120.7193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8992</v>
+        <v>0.9008</v>
       </c>
       <c r="B4" s="0">
-        <v>269.6247</v>
+        <v>120.1956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8504</v>
+        <v>0.8501</v>
       </c>
       <c r="B5" s="0">
-        <v>239.5674</v>
+        <v>119.2366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8008</v>
+        <v>0.8017</v>
       </c>
       <c r="B6" s="0">
-        <v>232.888</v>
+        <v>118.717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7503</v>
+        <v>0.7517</v>
       </c>
       <c r="B7" s="0">
-        <v>226.8766</v>
+        <v>118.4124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7023</v>
+        <v>0.7034</v>
       </c>
       <c r="B8" s="0">
-        <v>213.2952</v>
+        <v>118.1104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.651</v>
+        <v>0.6549</v>
       </c>
       <c r="B9" s="0">
-        <v>204.1667</v>
+        <v>118.2438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6014</v>
+        <v>0.6042</v>
       </c>
       <c r="B10" s="0">
-        <v>194.1476</v>
+        <v>117.9378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5517</v>
+        <v>0.5535</v>
       </c>
       <c r="B11" s="0">
-        <v>186.1323</v>
+        <v>116.9788</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5029</v>
+        <v>0.502</v>
       </c>
       <c r="B12" s="0">
-        <v>178.3397</v>
+        <v>117.3244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4516</v>
+        <v>0.4512</v>
       </c>
       <c r="B13" s="0">
-        <v>170.3244</v>
+        <v>116.8007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4028</v>
+        <v>0.4013</v>
       </c>
       <c r="B14" s="0">
-        <v>163.4224</v>
+        <v>116.4961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3531</v>
+        <v>0.3505</v>
       </c>
       <c r="B15" s="0">
-        <v>156.5204</v>
+        <v>115.7547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2513</v>
+        <v>0.3013</v>
       </c>
       <c r="B16" s="0">
-        <v>143.1616</v>
+        <v>115.4514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2017</v>
+        <v>0.2514</v>
       </c>
       <c r="B17" s="0">
-        <v>134.9237</v>
+        <v>114.4938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.181</v>
+        <v>0.1991</v>
       </c>
       <c r="B18" s="0">
-        <v>128.2443</v>
+        <v>113.5321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1603</v>
+        <v>0.1804</v>
       </c>
       <c r="B19" s="0">
-        <v>120.6743</v>
+        <v>113.4995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1404</v>
+        <v>0.1601</v>
       </c>
       <c r="B20" s="0">
-        <v>117.7799</v>
+        <v>112.8112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1206</v>
+        <v>0.1405</v>
       </c>
       <c r="B21" s="0">
-        <v>113.5496</v>
+        <v>112.1242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0999</v>
+        <v>0.1203</v>
       </c>
       <c r="B22" s="0">
-        <v>110.2099</v>
+        <v>111.8712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="B23" s="0">
-        <v>105.5344</v>
+        <v>110.9652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0619</v>
+        <v>0.0812</v>
       </c>
       <c r="B24" s="0">
-        <v>99.7455</v>
+        <v>110.062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.042</v>
+        <v>0.0617</v>
       </c>
       <c r="B25" s="0">
-        <v>95.07</v>
+        <v>108.722</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0222</v>
+        <v>0.0414</v>
       </c>
       <c r="B26" s="0">
-        <v>83.2697</v>
+        <v>106.7277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0098</v>
+        <v>0.0204</v>
       </c>
       <c r="B27" s="0">
-        <v>75.4771</v>
-      </c>
-    </row>
-    <row r="28"/>
+        <v>102.5555</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0111</v>
+      </c>
+      <c r="B28" s="0">
+        <v>96.4448</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12933,7 +12893,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12941,7 +12901,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -12954,181 +12914,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.95</v>
+        <v>0.903</v>
       </c>
       <c r="B3" s="0">
-        <v>57.7467</v>
+        <v>148.2777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8983</v>
+        <v>0.8509</v>
       </c>
       <c r="B4" s="0">
-        <v>43.1827</v>
+        <v>113.1435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8467</v>
+        <v>0.7995</v>
       </c>
       <c r="B5" s="0">
-        <v>33.6092</v>
+        <v>93.6821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7952</v>
+        <v>0.7489</v>
       </c>
       <c r="B6" s="0">
-        <v>28.7206</v>
+        <v>81.4049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7453</v>
+        <v>0.7013</v>
       </c>
       <c r="B7" s="0">
-        <v>24.9523</v>
+        <v>75.6628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6954</v>
+        <v>0.6553</v>
       </c>
       <c r="B8" s="0">
-        <v>22.9153</v>
+        <v>72.9707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6448</v>
+        <v>0.6037</v>
       </c>
       <c r="B9" s="0">
-        <v>21.9987</v>
+        <v>70.2691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5958</v>
+        <v>0.5522</v>
       </c>
       <c r="B10" s="0">
-        <v>21.2858</v>
+        <v>68.8734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5452</v>
+        <v>0.4523</v>
       </c>
       <c r="B11" s="0">
-        <v>20.9803</v>
+        <v>67.3935</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.497</v>
+        <v>0.3992</v>
       </c>
       <c r="B12" s="0">
-        <v>20.6747</v>
+        <v>66.4304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3958</v>
+        <v>0.3501</v>
       </c>
       <c r="B13" s="0">
-        <v>20.3692</v>
+        <v>65.9094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3459</v>
+        <v>0.3009</v>
       </c>
       <c r="B14" s="0">
-        <v>19.7581</v>
+        <v>65.3885</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2969</v>
+        <v>0.2486</v>
       </c>
       <c r="B15" s="0">
-        <v>19.6563</v>
+        <v>64.4268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2479</v>
+        <v>0.1994</v>
       </c>
       <c r="B16" s="0">
-        <v>19.5544</v>
+        <v>63.2528</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1957</v>
+        <v>0.1784</v>
       </c>
       <c r="B17" s="0">
-        <v>19.147</v>
+        <v>61.0395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.176</v>
+        <v>0.1581</v>
       </c>
       <c r="B18" s="0">
-        <v>19.0452</v>
+        <v>60.3512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1554</v>
+        <v>0.1378</v>
       </c>
       <c r="B19" s="0">
-        <v>19.0452</v>
+        <v>57.4863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1349</v>
+        <v>0.1183</v>
       </c>
       <c r="B20" s="0">
-        <v>18.7397</v>
+        <v>55.7111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1151</v>
+        <v>0.098</v>
       </c>
       <c r="B21" s="0">
-        <v>18.7397</v>
+        <v>52.6285</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0961</v>
+        <v>0.0809</v>
       </c>
       <c r="B22" s="0">
-        <v>18.7397</v>
+        <v>50.6397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0771</v>
+        <v>0.0606</v>
       </c>
       <c r="B23" s="0">
-        <v>18.2304</v>
+        <v>47.3394</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0368</v>
+        <v>0.0395</v>
       </c>
       <c r="B24" s="0">
-        <v>17.1101</v>
-      </c>
-    </row>
-    <row r="25"/>
+        <v>41.2083</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0193</v>
+      </c>
+      <c r="B25" s="0">
+        <v>33.3372</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="B26" s="0">
+        <v>27.6617</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13145,7 +13121,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -13158,210 +13134,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9506</v>
+        <v>0.9517</v>
       </c>
       <c r="B3" s="0">
-        <v>142.4825</v>
+        <v>329.4571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8993</v>
+        <v>0.9008</v>
       </c>
       <c r="B4" s="0">
-        <v>115.0859</v>
+        <v>238.1682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8483</v>
+        <v>0.8528</v>
       </c>
       <c r="B5" s="0">
-        <v>98.1795</v>
+        <v>189.546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7966</v>
+        <v>0.8022</v>
       </c>
       <c r="B6" s="0">
-        <v>86.4672</v>
+        <v>159.4206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7466</v>
+        <v>0.7516</v>
       </c>
       <c r="B7" s="0">
-        <v>77.1992</v>
+        <v>140.8313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6974</v>
+        <v>0.7048</v>
       </c>
       <c r="B8" s="0">
-        <v>71.1903</v>
+        <v>130.0844</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6483</v>
+        <v>0.6549</v>
       </c>
       <c r="B9" s="0">
-        <v>67.2183</v>
+        <v>120.2027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5976</v>
+        <v>0.6043</v>
       </c>
       <c r="B10" s="0">
-        <v>63.1445</v>
+        <v>111.1904</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.547</v>
+        <v>0.5536</v>
       </c>
       <c r="B11" s="0">
-        <v>61.4131</v>
+        <v>104.5722</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4971</v>
+        <v>0.5021</v>
       </c>
       <c r="B12" s="0">
-        <v>59.3762</v>
+        <v>97.7351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4481</v>
+        <v>0.4522</v>
       </c>
       <c r="B13" s="0">
-        <v>58.2559</v>
+        <v>91.7713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3975</v>
+        <v>0.4015</v>
       </c>
       <c r="B14" s="0">
-        <v>58.5614</v>
+        <v>86.6768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3485</v>
+        <v>0.3515</v>
       </c>
       <c r="B15" s="0">
-        <v>58.5614</v>
+        <v>82.6719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2979</v>
+        <v>0.3016</v>
       </c>
       <c r="B16" s="0">
-        <v>57.543</v>
+        <v>78.2317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2481</v>
+        <v>0.2501</v>
       </c>
       <c r="B17" s="0">
-        <v>57.4411</v>
+        <v>74.6595</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1975</v>
+        <v>0.2001</v>
       </c>
       <c r="B18" s="0">
-        <v>57.4411</v>
+        <v>71.5252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1761</v>
+        <v>0.1806</v>
       </c>
       <c r="B19" s="0">
-        <v>57.3393</v>
+        <v>70.403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1571</v>
+        <v>0.1596</v>
       </c>
       <c r="B20" s="0">
-        <v>57.3393</v>
+        <v>69.4956</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1358</v>
+        <v>0.1401</v>
       </c>
       <c r="B21" s="0">
-        <v>56.5245</v>
+        <v>68.1557</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1152</v>
+        <v>0.1198</v>
       </c>
       <c r="B22" s="0">
-        <v>56.3208</v>
+        <v>67.4674</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0978</v>
+        <v>0.1003</v>
       </c>
       <c r="B23" s="0">
-        <v>56.4227</v>
+        <v>66.3451</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0781</v>
+        <v>0.0808</v>
       </c>
       <c r="B24" s="0">
-        <v>56.4227</v>
+        <v>65.2228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0591</v>
+        <v>0.0605</v>
       </c>
       <c r="B25" s="0">
-        <v>55.4042</v>
+        <v>63.2285</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0401</v>
+        <v>0.0402</v>
       </c>
       <c r="B26" s="0">
-        <v>54.4876</v>
+        <v>59.7107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0194</v>
+        <v>0.0207</v>
       </c>
       <c r="B27" s="0">
-        <v>48.8861</v>
+        <v>54.6705</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0105</v>
+        <v>0.0106</v>
       </c>
       <c r="B28" s="0">
-        <v>41.7568</v>
+        <v>46.1641</v>
       </c>
     </row>
     <row r="29"/>
@@ -13381,7 +13357,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -13394,210 +13370,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9516</v>
+        <v>0.9487</v>
       </c>
       <c r="B3" s="0">
-        <v>120.7193</v>
+        <v>306.086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9008</v>
+        <v>0.8971</v>
       </c>
       <c r="B4" s="0">
-        <v>120.1956</v>
+        <v>282.5774</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8501</v>
+        <v>0.8479</v>
       </c>
       <c r="B5" s="0">
-        <v>119.2366</v>
+        <v>264.7443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8017</v>
+        <v>0.797</v>
       </c>
       <c r="B6" s="0">
-        <v>118.717</v>
+        <v>251.2942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7517</v>
+        <v>0.7469</v>
       </c>
       <c r="B7" s="0">
-        <v>118.4124</v>
+        <v>238.3606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7034</v>
+        <v>0.696</v>
       </c>
       <c r="B8" s="0">
-        <v>118.1104</v>
+        <v>226.4579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6549</v>
+        <v>0.6459</v>
       </c>
       <c r="B9" s="0">
-        <v>118.2438</v>
+        <v>215.3295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6042</v>
+        <v>0.5958</v>
       </c>
       <c r="B10" s="0">
-        <v>117.9378</v>
+        <v>206.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5535</v>
+        <v>0.5456</v>
       </c>
       <c r="B11" s="0">
-        <v>116.9788</v>
+        <v>197.199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.502</v>
+        <v>0.4931</v>
       </c>
       <c r="B12" s="0">
-        <v>117.3244</v>
+        <v>188.9056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4512</v>
+        <v>0.4429</v>
       </c>
       <c r="B13" s="0">
-        <v>116.8007</v>
+        <v>180.872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4013</v>
+        <v>0.392</v>
       </c>
       <c r="B14" s="0">
-        <v>116.4961</v>
+        <v>174.1272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3505</v>
+        <v>0.3434</v>
       </c>
       <c r="B15" s="0">
-        <v>115.7547</v>
+        <v>166.3527</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3013</v>
+        <v>0.2932</v>
       </c>
       <c r="B16" s="0">
-        <v>115.4514</v>
+        <v>159.8664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2514</v>
+        <v>0.2438</v>
       </c>
       <c r="B17" s="0">
-        <v>114.4938</v>
+        <v>153.6386</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1991</v>
+        <v>0.1944</v>
       </c>
       <c r="B18" s="0">
-        <v>113.5321</v>
+        <v>146.895</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1804</v>
+        <v>0.1748</v>
       </c>
       <c r="B19" s="0">
-        <v>113.4995</v>
+        <v>144.043</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1601</v>
+        <v>0.1552</v>
       </c>
       <c r="B20" s="0">
-        <v>112.8112</v>
+        <v>140.6751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1405</v>
+        <v>0.1356</v>
       </c>
       <c r="B21" s="0">
-        <v>112.1242</v>
+        <v>138.081</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1203</v>
+        <v>0.1168</v>
       </c>
       <c r="B22" s="0">
-        <v>111.8712</v>
+        <v>134.198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1</v>
+        <v>0.0972</v>
       </c>
       <c r="B23" s="0">
-        <v>110.9652</v>
+        <v>129.7986</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0812</v>
+        <v>0.0784</v>
       </c>
       <c r="B24" s="0">
-        <v>110.062</v>
+        <v>125.3998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0617</v>
+        <v>0.0581</v>
       </c>
       <c r="B25" s="0">
-        <v>108.722</v>
+        <v>118.1629</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0414</v>
+        <v>0.0385</v>
       </c>
       <c r="B26" s="0">
-        <v>106.7277</v>
+        <v>111.4424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0204</v>
+        <v>0.0191</v>
       </c>
       <c r="B27" s="0">
-        <v>102.5555</v>
+        <v>94.664</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0111</v>
+        <v>0.0083</v>
       </c>
       <c r="B28" s="0">
-        <v>96.4448</v>
+        <v>80.7292</v>
       </c>
     </row>
     <row r="29"/>
@@ -13609,7 +13585,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13617,7 +13593,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -13630,197 +13606,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.903</v>
+        <v>0.0044</v>
       </c>
       <c r="B3" s="0">
-        <v>148.2777</v>
+        <v>22.699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8509</v>
+        <v>0.0114</v>
       </c>
       <c r="B4" s="0">
-        <v>113.1435</v>
+        <v>28.3782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.7995</v>
+        <v>0.0199</v>
       </c>
       <c r="B5" s="0">
-        <v>93.6821</v>
+        <v>36.1218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7489</v>
+        <v>0.0394</v>
       </c>
       <c r="B6" s="0">
-        <v>81.4049</v>
+        <v>47.7423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7013</v>
+        <v>0.0598</v>
       </c>
       <c r="B7" s="0">
-        <v>75.6628</v>
+        <v>51.6265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.6553</v>
+        <v>0.0786</v>
       </c>
       <c r="B8" s="0">
-        <v>72.9707</v>
+        <v>55.5095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6037</v>
+        <v>0.0974</v>
       </c>
       <c r="B9" s="0">
-        <v>70.2691</v>
+        <v>59.3925</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.5522</v>
+        <v>0.117</v>
       </c>
       <c r="B10" s="0">
-        <v>68.8734</v>
+        <v>61.213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4523</v>
+        <v>0.1374</v>
       </c>
       <c r="B11" s="0">
-        <v>67.3935</v>
+        <v>63.2919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3992</v>
+        <v>0.157</v>
       </c>
       <c r="B12" s="0">
-        <v>66.4304</v>
+        <v>63.565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3501</v>
+        <v>0.1751</v>
       </c>
       <c r="B13" s="0">
-        <v>65.9094</v>
+        <v>63.3211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3009</v>
+        <v>0.1947</v>
       </c>
       <c r="B14" s="0">
-        <v>65.3885</v>
+        <v>65.3995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2486</v>
+        <v>0.2442</v>
       </c>
       <c r="B15" s="0">
-        <v>64.4268</v>
+        <v>65.6957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1994</v>
+        <v>0.2937</v>
       </c>
       <c r="B16" s="0">
-        <v>63.2528</v>
+        <v>67.0234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1784</v>
+        <v>0.3439</v>
       </c>
       <c r="B17" s="0">
-        <v>61.0395</v>
+        <v>69.6413</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1581</v>
+        <v>0.3926</v>
       </c>
       <c r="B18" s="0">
-        <v>60.3512</v>
+        <v>71.2263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1378</v>
+        <v>0.4436</v>
       </c>
       <c r="B19" s="0">
-        <v>57.4863</v>
+        <v>73.8448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1183</v>
+        <v>0.493</v>
       </c>
       <c r="B20" s="0">
-        <v>55.7111</v>
+        <v>77.7515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.098</v>
+        <v>0.5456</v>
       </c>
       <c r="B21" s="0">
-        <v>52.6285</v>
+        <v>81.6607</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0809</v>
+        <v>0.5966</v>
       </c>
       <c r="B22" s="0">
-        <v>50.6397</v>
+        <v>85.8265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0606</v>
+        <v>0.6476</v>
       </c>
       <c r="B23" s="0">
-        <v>47.3394</v>
+        <v>91.7976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0395</v>
+        <v>0.6977</v>
       </c>
       <c r="B24" s="0">
-        <v>41.2083</v>
+        <v>102.1523</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0193</v>
+        <v>0.7478</v>
       </c>
       <c r="B25" s="0">
-        <v>33.3372</v>
+        <v>117.9228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.01</v>
+        <v>0.7986</v>
       </c>
       <c r="B26" s="0">
-        <v>27.6617</v>
-      </c>
-    </row>
-    <row r="27"/>
+        <v>136.5308</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8485</v>
+      </c>
+      <c r="B27" s="0">
+        <v>164.9382</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.899</v>
+      </c>
+      <c r="B28" s="0">
+        <v>208.3041</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9507</v>
+      </c>
+      <c r="B29" s="0">
+        <v>274.366</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13837,7 +13837,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -13850,210 +13850,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9517</v>
+        <v>0.0093</v>
       </c>
       <c r="B3" s="0">
-        <v>329.4571</v>
+        <v>63.7087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9008</v>
+        <v>0.0201</v>
       </c>
       <c r="B4" s="0">
-        <v>238.1682</v>
+        <v>79.7067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8528</v>
+        <v>0.0396</v>
       </c>
       <c r="B5" s="0">
-        <v>189.546</v>
+        <v>94.9377</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8022</v>
+        <v>0.0591</v>
       </c>
       <c r="B6" s="0">
-        <v>159.4206</v>
+        <v>103.4635</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7516</v>
+        <v>0.0779</v>
       </c>
       <c r="B7" s="0">
-        <v>140.8313</v>
+        <v>106.8307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7048</v>
+        <v>0.0975</v>
       </c>
       <c r="B8" s="0">
-        <v>130.0844</v>
+        <v>110.7143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6549</v>
+        <v>0.1171</v>
       </c>
       <c r="B9" s="0">
-        <v>120.2027</v>
+        <v>113.3085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6043</v>
+        <v>0.1367</v>
       </c>
       <c r="B10" s="0">
-        <v>111.1904</v>
+        <v>116.6763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5536</v>
+        <v>0.1563</v>
       </c>
       <c r="B11" s="0">
-        <v>104.5722</v>
+        <v>118.4968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5021</v>
+        <v>0.1751</v>
       </c>
       <c r="B12" s="0">
-        <v>97.7351</v>
+        <v>120.5745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4522</v>
+        <v>0.1932</v>
       </c>
       <c r="B13" s="0">
-        <v>91.7713</v>
+        <v>121.3622</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4015</v>
+        <v>0.2442</v>
       </c>
       <c r="B14" s="0">
-        <v>86.6768</v>
+        <v>124.7543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3515</v>
+        <v>0.2952</v>
       </c>
       <c r="B15" s="0">
-        <v>82.6719</v>
+        <v>125.5675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3016</v>
+        <v>0.3439</v>
       </c>
       <c r="B16" s="0">
-        <v>78.2317</v>
+        <v>127.9262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2501</v>
+        <v>0.3926</v>
       </c>
       <c r="B17" s="0">
-        <v>74.6595</v>
+        <v>130.0271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2001</v>
+        <v>0.4428</v>
       </c>
       <c r="B18" s="0">
-        <v>71.5252</v>
+        <v>131.3555</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1806</v>
+        <v>0.4931</v>
       </c>
       <c r="B19" s="0">
-        <v>70.403</v>
+        <v>132.168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1596</v>
+        <v>0.5441</v>
       </c>
       <c r="B20" s="0">
-        <v>69.4956</v>
+        <v>134.2707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1401</v>
+        <v>0.5967</v>
       </c>
       <c r="B21" s="0">
-        <v>68.1557</v>
+        <v>137.1483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1198</v>
+        <v>0.6477</v>
       </c>
       <c r="B22" s="0">
-        <v>67.4674</v>
+        <v>140.5404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1003</v>
+        <v>0.6979</v>
       </c>
       <c r="B23" s="0">
-        <v>66.3451</v>
+        <v>145.7372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0808</v>
+        <v>0.7481</v>
       </c>
       <c r="B24" s="0">
-        <v>65.2228</v>
+        <v>150.934</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0605</v>
+        <v>0.7991</v>
       </c>
       <c r="B25" s="0">
-        <v>63.2285</v>
+        <v>161.0315</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0402</v>
+        <v>0.8482</v>
       </c>
       <c r="B26" s="0">
-        <v>59.7107</v>
+        <v>183.2488</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0207</v>
+        <v>0.8994</v>
       </c>
       <c r="B27" s="0">
-        <v>54.6705</v>
+        <v>230.7416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0106</v>
+        <v>0.9496</v>
       </c>
       <c r="B28" s="0">
-        <v>46.1641</v>
+        <v>296.5444</v>
       </c>
     </row>
     <row r="29"/>
